--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.78469999999998</v>
+        <v>-21.11279999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.68540000000001</v>
+        <v>-22.67820000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-22.0026</v>
+        <v>-22.02670000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>4.709500000000002</v>
+        <v>4.795900000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.917599999999998</v>
+        <v>4.774599999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.292399999999998</v>
+        <v>5.217199999999997</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.54889999999999</v>
+        <v>-21.61149999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-23.18570000000001</v>
+        <v>-23.01710000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>5.064299999999998</v>
+        <v>5.190899999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.4846</v>
+        <v>10.4157</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.214</v>
+        <v>10.0895</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.0052</v>
+        <v>9.4887</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.14259999999999</v>
+        <v>-22.2649</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.7195</v>
+        <v>-21.65880000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>5.105500000000003</v>
+        <v>5.119500000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.16279999999999</v>
+        <v>-21.14439999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.456600000000003</v>
+        <v>9.487800000000004</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.83209999999998</v>
+        <v>-19.71849999999998</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.828799999999996</v>
+        <v>9.729199999999995</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.012700000000003</v>
+        <v>5.996900000000002</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.2485</v>
+        <v>5.4671</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.827400000000003</v>
+        <v>5.138700000000003</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.0392</v>
+        <v>-22.02959999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>5.538200000000004</v>
+        <v>5.540500000000002</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.809199999999997</v>
+        <v>4.793599999999995</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.21519999999999</v>
+        <v>-22.15379999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>5.718999999999999</v>
+        <v>5.703100000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.08249999999999</v>
+        <v>-21.9844</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.63480000000002</v>
+        <v>-22.63010000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.95800000000001</v>
+        <v>-22.053</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.10800000000001</v>
+        <v>-22.04780000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.5311</v>
+        <v>-21.50980000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>5.127899999999999</v>
+        <v>4.991299999999998</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.0435</v>
+        <v>5.2033</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.94789999999998</v>
+        <v>-19.96609999999997</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.89799999999998</v>
+        <v>-21.93429999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.823900000000002</v>
+        <v>9.996200000000009</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.498399999999999</v>
+        <v>5.290699999999999</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.41930000000002</v>
+        <v>-21.44020000000002</v>
       </c>
       <c r="B92" t="n">
-        <v>4.954499999999995</v>
+        <v>4.824899999999995</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.3034</v>
+        <v>6.511000000000003</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.9897</v>
+        <v>-21.9932</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
